--- a/Datascraping/output_excel_files_new/Indian Institute of Technology Patna_tables.xlsx
+++ b/Datascraping/output_excel_files_new/Indian Institute of Technology Patna_tables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,32 +520,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UG [4 Years Program(s)]</t>
+          <t>UG [5 Years Program(s)]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -710,68 +710,68 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UG [4 Years+          <t>UG [5 Years Program(s)]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2199</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2675</t>
+          <t>186</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1425</t>
+          <t>98</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>487</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1511</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>583</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>1395</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -784,27 +784,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>21</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -916,24 +916,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>2015-16</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>2016-17</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>554</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>514</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2017-18</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>0</t>
@@ -946,23 +946,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>650000(Six lakh fifty-thousand)</t>
+          <t>0(Zero)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -972,24 +971,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>2017-18</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>0</t>
@@ -1002,23 +1001,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>28</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>680000(Six lakh eighty-thousand)</t>
+          <t>0(Zero)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1028,24 +1026,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>2018-19</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>0</t>
@@ -1058,22 +1056,23 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>28</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1000000(Ten lakh)</t>
+          <t>650000(Six lakh fifty+thousand)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1146,12 +1145,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,23 +1160,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>360000(Three lakh-sixty thousand)</t>
+          <t>0(Zero)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1194,12 +1192,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1209,23 +1207,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>675000(Six lakh-seventy five thousand)</t>
+          <t>0(Zero)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1242,12 +1239,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1257,22 +1254,23 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>600000(Six lakh)</t>
+          <t>480000(Four lakh+eighty thousand)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1284,12 +1282,24 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ph.D (Student pursuing doctoral program till 2021-22)</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+          <t>Financial Year</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -1304,11 +1314,19 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Total Students</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1322,14 +1340,10 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>346</t>
-        </is>
-      </c>
+          <t>Annual Capital Expenditure on Academic Activities and Resources (excluding expenditure on buildings)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
@@ -1345,16 +1359,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Part Time</t>
+          <t>Library</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>821</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+          <t>0 (Zero)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0 (Zero)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0 (Zero)</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1368,12 +1390,24 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>No. of Ph.D students graduated (including Integrated Ph.D)</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+          <t>New Equipment for Laboratories</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0 (Zero)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0 (Zero)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0 (Zero)</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1385,20 +1419,24 @@
       <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1414,22 +1452,23 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Other expenditure on creation of Capital Assets (excluding+expenditure on Land and Building)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1445,22 +1484,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Part Time</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1474,24 +1513,20 @@
       <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Financial Year</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1505,22 +1540,14 @@
       <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Annual Operational Expenditure</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1534,12 +1561,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Annual Capital Expenditure on Academic Activities and Resources (excluding expenditure on buildings)</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+          <t>Salaries (Teaching and Non Teaching staff)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>32415107 (Three crore twenty four lakh fifteen thousand one+hundred seven)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>28583045 (Two crore eighty five lakh eighty three thousand+forty five)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20749350 (Two crore seven lakh forty nine thousand three+hundred fifty)</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1553,25 +1595,26 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Library ( Books, Journals and e-Resources only)</t>
+          <t>Maintenance of Academic Infrastructure or consumables and+other running expenditures(excluding maintenance of hostels+and allied services,rent of the building, depreciation cost, etc)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>86769210 (Eight crore sixty seven lakh sixty nine thousand two-hundred ten)</t>
+          <t>332163 (Three lakh thirty two thousand one hundred sixty+three)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>74748814 (Seven crore forty seven lakh forty eight thousand-eight hundred fourteen)</t>
+          <t>177733 (One lakh seventy seven thousand seven hundred+thirty three)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>23700598 (Two crore thirty seven lakh five hundred ninety-eight)</t>
+          <t>999 (Nine hundred ninety nine)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1587,25 +1630,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>New Equipment and software for Laboratories</t>
+          <t>Seminars/Conferences/Workshops</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16737706 (One crore sixty seven lakh thirty seven thousand-seven hundred six)</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14594648 (One crore forty five lakh ninety four thousand six-hundred forty eight)</t>
+          <t>5000 (Five thousand)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>51624396 (Five crore sixteen lakh twenty four thousand three-hundred ninety six)</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1621,22 +1661,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Engineering Workshops</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>695090 (Six lakh ninety five thousand ninety)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0 (Zero)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>299990 (Two lakh ninety nine thousand nine hundred ninety)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1652,27 +1692,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Other expenditure on creation of Capital Assets (For setting up-classrooms, seminar hall, conference hall , library, Lab, Engg-workshops excluding expenditure on Land and Building)</t>
+          <t>Total no. of Sponsored Projects</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16151220 (One crore sixty one lakh fifty one thousand two-hundred twenty)</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>122923617 (Twelve crore twenty nine lakh twenty three-thousand six hundred seventeen)</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12218825 (One crore twenty two lakh eighteen thousand eight-hundred twenty five)</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1688,22 +1723,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Total no. of Funding Agencies</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1717,20 +1752,24 @@
       <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Total Amount Received (Amount in Rupees)</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>500634</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>250000</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>750000</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1746,12 +1785,24 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Annual Operational Expenditure</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+          <t>Amount Received in Words</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Five lakh six hundred thirty four</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Two lakh fifty thousand</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Seven lakh fifty thousand</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -1765,25 +1816,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Salaries (Teaching and Non Teaching staff)</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>592589949 (Fifty nine crore twenty five lakh eighty nine-thousand nine hundred forty nine)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>534092760 (Fifty three crore forty lakh ninety two thousand-seven hundred sixty)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>508923543 (Fifty crore eighty nine lakh twenty three thousand-five hundred forty three)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1799,27 +1847,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Maintenance of Academic Infrastructure or consumables and-other running expenditures(excluding maintenance of hostels-and allied services,rent of the building, depreciation cost, etc)</t>
+          <t>Total no. of Consultancy Projects</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>287272275 (Twenty eight crore seventy two lakh seventy two-thousand two hundred seventy five)</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>325481052 (Thirty two crore fifty four lakh eighty one thousand-fifty two)</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>387283082 (Thirty eight crore seventy two lakh eighty three-thousand eighty two)</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1835,25 +1878,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Seminars/Conferences/Workshops</t>
+          <t>Total no. of Client Organizations</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>27499926 (Two crore seventy four lakh ninety nine thousand-nine hundred twenty six)</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>28276806 (Two crore eighty two lakh seventy six thousand-eight hundred six)</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>13305378 (One crore thirty three lakh five thousand three-hundred seventy eight)</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1869,22 +1909,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Total Amount Received (Amount in Rupees)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>1398930</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>617580</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>760760</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1900,22 +1940,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Total no. of Sponsored Projects</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>Thirteen lakh ninety eight thousand nine hundred thirty</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>Six lakh seventeen thousand five hundred eighty</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>Seven lakh sixty thousand seven hundred sixty</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1931,24 +1971,16 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Total no. of Funding Agencies</t>
+          <t>1. Do your institution buildings have Lifts/Ramps?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -1962,24 +1994,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for+handicapped students?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>42968221</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>44079025</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>110949141</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -1993,26 +2018,16 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Four crore twenty nine lakh sixty eight thousand two hundred-twenty one</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Four crore forty lakh seventy nine thousand twenty five</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Eleven crore nine lakh forty nine thousand one hundred forty-one</t>
-        </is>
-      </c>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -2026,24 +2041,16 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Number of faculty members entered</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -2054,226 +2061,6 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Total no. of Consultancy Projects</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>921</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1019</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1224</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Total no. of Client Organizations</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>399</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>278</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>71189179</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>77508513</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>53233379</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Amount Received in Words</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Seven crore eleven lakh eighty nine thousand one hundred-seventy nine</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Seven crore seventy five lakhs eight thousand five hundred-thirteen</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Five crore thirty two lakhs thirty three thousand three hundred-seventy nine</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>1. Do your institution buildings have Lifts/Ramps?</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for-handicapped students?</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Number of faculty members entered</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
